--- a/output/1Y_P83_1VAL-D.xlsx
+++ b/output/1Y_P83_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>654.4674</v>
       </c>
-      <c r="G2" s="1">
-        <v>654.4674</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.100700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2796</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E3" s="1">
+        <v>654.4674</v>
+      </c>
       <c r="F3" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1303.7253</v>
-      </c>
       <c r="H3" s="1">
-        <v>19976.0701</v>
+        <v>10027.9458</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3407</v>
+        <v>10027.9458</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2796</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19976.0701</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.042</v>
       </c>
+      <c r="E4" s="1">
+        <v>1303.7253</v>
+      </c>
       <c r="F4" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G4" s="1">
-        <v>1927.089</v>
-      </c>
       <c r="H4" s="1">
-        <v>30754.2201</v>
+        <v>20806.0216</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5675</v>
+        <v>20806.0216</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3407</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30754.2201</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.026</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E5" s="1">
+        <v>1927.089</v>
+      </c>
       <c r="F5" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G5" s="1">
-        <v>2558.2347</v>
-      </c>
       <c r="H5" s="1">
-        <v>40322.8961</v>
+        <v>30374.7762</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6358</v>
+        <v>30374.7762</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5675</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40322.8961</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0106</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E6" s="1">
+        <v>2558.2347</v>
+      </c>
       <c r="F6" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>3184.3735</v>
-      </c>
       <c r="H6" s="1">
-        <v>50593.3267</v>
+        <v>40645.2336</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7017</v>
+        <v>40645.2336</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6358</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50593.3267</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0054</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.743</v>
       </c>
+      <c r="E7" s="1">
+        <v>3184.3735</v>
+      </c>
       <c r="F7" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G7" s="1">
-        <v>3781.6381</v>
-      </c>
       <c r="H7" s="1">
-        <v>62987.7199</v>
+        <v>53039.5625</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.8661</v>
+        <v>53039.5625</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7017</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62987.7199</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0395</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E8" s="1">
+        <v>3781.6381</v>
+      </c>
       <c r="F8" s="1">
         <v>567.553</v>
       </c>
-      <c r="G8" s="1">
-        <v>4349.1911</v>
-      </c>
       <c r="H8" s="1">
-        <v>76233.0558</v>
+        <v>66284.9301</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0949</v>
+        <v>66284.9301</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.8661</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76233.0558</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0445</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E9" s="1">
+        <v>4349.1911</v>
+      </c>
       <c r="F9" s="1">
         <v>566.104</v>
       </c>
-      <c r="G9" s="1">
-        <v>4915.295</v>
-      </c>
       <c r="H9" s="1">
-        <v>86376.4794</v>
+        <v>76428.3345</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2757</v>
+        <v>76428.3345</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0949</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86376.4794</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0017</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E10" s="1">
+        <v>4915.295</v>
+      </c>
       <c r="F10" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G10" s="1">
-        <v>5494.7096</v>
-      </c>
       <c r="H10" s="1">
-        <v>94340.3172</v>
+        <v>84392.17479999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3794</v>
+        <v>84392.17479999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2757</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94340.3172</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0211</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E11" s="1">
+        <v>5494.7096</v>
+      </c>
       <c r="F11" s="1">
         <v>593.581</v>
       </c>
-      <c r="G11" s="1">
-        <v>6088.2906</v>
-      </c>
       <c r="H11" s="1">
-        <v>102037.315</v>
+        <v>92089.1346</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.425</v>
+        <v>92089.1346</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.3794</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.47</v>
       </c>
-      <c r="L11" s="1">
-        <v>2324.2622</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7675.7378</v>
+        <v>2079.1698</v>
       </c>
       <c r="O11" s="1">
-        <v>2324.2622</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104361.5772</v>
+        <v>-7920.8302</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0002</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E12" s="1">
+        <v>6088.2906</v>
+      </c>
       <c r="F12" s="1">
-        <v>657.6056</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6745.8962</v>
+        <v>650.3859</v>
       </c>
       <c r="H12" s="1">
-        <v>113909.8533</v>
+        <v>102805.6573</v>
       </c>
       <c r="I12" s="1">
-        <v>111162.1311</v>
+        <v>2079.1698</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4785</v>
+        <v>104884.8271</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101039.5849</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5957</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11162.1311</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1162.1311</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115071.9844</v>
+        <v>-11039.5849</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0062</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E13" s="1">
+        <v>6738.6765</v>
+      </c>
       <c r="F13" s="1">
-        <v>631.3887</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7377.2848</v>
+        <v>624.4568</v>
       </c>
       <c r="H13" s="1">
-        <v>129744.3084</v>
+        <v>118513.1031</v>
       </c>
       <c r="I13" s="1">
-        <v>122324.2622</v>
+        <v>1039.5849</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5812</v>
+        <v>119552.688</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112079.1698</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6322</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11162.1311</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>129744.3084</v>
+        <v>-11039.5849</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0374</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E14" s="1">
+        <v>7363.1333</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7377.2848</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6738.6765</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130231.7387</v>
       </c>
       <c r="I14" s="1">
-        <v>122324.2622</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5812</v>
+        <v>130231.7387</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112079.1698</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2217</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130482.0369</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130482.0369</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130482.0369</v>
+        <v>119186.9708</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0663</v>
+        <v>0.0052</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.2796</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>654.4674</v>
       </c>
       <c r="G2" s="1">
-        <v>654.4674</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2796</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.4022</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>654.4674</v>
       </c>
       <c r="F3" s="1">
         <v>650.8197</v>
       </c>
       <c r="G3" s="1">
-        <v>1305.2871</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10027.9458</v>
       </c>
       <c r="I3" s="1">
-        <v>20024.0547</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3407</v>
+        <v>10027.9458</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10024.0547</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3164</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10024.0547</v>
       </c>
-      <c r="O3" s="1">
-        <v>-24.0547</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19975.9453</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.042</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1305.2871</v>
       </c>
       <c r="F4" s="1">
         <v>574.5417</v>
       </c>
       <c r="G4" s="1">
-        <v>1879.8288</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20830.9457</v>
       </c>
       <c r="I4" s="1">
-        <v>29240.8534</v>
+        <v>-24.0547</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5551</v>
+        <v>20806.891</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19240.8534</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.7407</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9216.798699999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>759.1466</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30759.1466</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0261</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.8442</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1879.8288</v>
       </c>
       <c r="F5" s="1">
         <v>657.9202</v>
       </c>
       <c r="G5" s="1">
-        <v>2537.749</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29629.8617</v>
       </c>
       <c r="I5" s="1">
-        <v>39665.0727</v>
+        <v>759.1466</v>
       </c>
       <c r="J5" s="1">
-        <v>15.63</v>
+        <v>30389.0083</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29665.0727</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7807</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10424.2193</v>
       </c>
-      <c r="O5" s="1">
-        <v>334.9273</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40334.9273</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0104</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.9709</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2537.749</v>
       </c>
       <c r="F6" s="1">
         <v>609.2802</v>
       </c>
       <c r="G6" s="1">
-        <v>3147.0292</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40319.7564</v>
       </c>
       <c r="I6" s="1">
-        <v>49395.8257</v>
+        <v>334.9273</v>
       </c>
       <c r="J6" s="1">
-        <v>15.696</v>
+        <v>40654.6836</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39395.8257</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5239</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9730.753000000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>604.1743</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50604.1743</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0053</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.743</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3147.0292</v>
       </c>
       <c r="F7" s="1">
         <v>455.233</v>
       </c>
       <c r="G7" s="1">
-        <v>3602.2622</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52417.5478</v>
       </c>
       <c r="I7" s="1">
-        <v>57017.7921</v>
+        <v>604.1743</v>
       </c>
       <c r="J7" s="1">
-        <v>15.8283</v>
+        <v>53021.7221</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47017.7921</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9404</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7621.9664</v>
       </c>
-      <c r="O7" s="1">
-        <v>2982.2079</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62982.2079</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0392</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.6195</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3602.2622</v>
       </c>
       <c r="F8" s="1">
         <v>391.3252</v>
       </c>
       <c r="G8" s="1">
-        <v>3993.5874</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63140.8124</v>
       </c>
       <c r="I8" s="1">
-        <v>63912.7468</v>
+        <v>2982.2079</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0038</v>
+        <v>66123.0203</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53912.7468</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.9664</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6894.9547</v>
       </c>
-      <c r="O8" s="1">
-        <v>6087.2532</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76087.25320000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0425</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.6646</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3993.5874</v>
       </c>
       <c r="F9" s="1">
         <v>558.851</v>
       </c>
       <c r="G9" s="1">
-        <v>4552.4384</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70179.3121</v>
       </c>
       <c r="I9" s="1">
-        <v>73784.62549999999</v>
+        <v>6087.2532</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2077</v>
+        <v>76266.5653</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63784.6255</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.9718</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9871.878699999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>6215.3745</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86215.37450000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0015</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.2588</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4552.4384</v>
       </c>
       <c r="F10" s="1">
         <v>689.4759</v>
       </c>
       <c r="G10" s="1">
-        <v>5241.9143</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>78162.18060000001</v>
       </c>
       <c r="I10" s="1">
-        <v>85684.1529</v>
+        <v>6215.3745</v>
       </c>
       <c r="J10" s="1">
-        <v>16.346</v>
+        <v>84377.5552</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75684.1529</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.625</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11899.5275</v>
       </c>
-      <c r="O10" s="1">
-        <v>4315.8471</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94315.8471</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0197</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.8469</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5241.9143</v>
       </c>
       <c r="F11" s="1">
         <v>724.8152</v>
       </c>
       <c r="G11" s="1">
-        <v>5966.7295</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87852.38770000001</v>
       </c>
       <c r="I11" s="1">
-        <v>97895.0416</v>
+        <v>4315.8471</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4068</v>
+        <v>92168.23480000001</v>
       </c>
       <c r="K11" s="1">
+        <v>87895.0416</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.7677</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.47</v>
       </c>
-      <c r="L11" s="1">
-        <v>2217.3298</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-9993.5589</v>
+        <v>1925.6814</v>
       </c>
       <c r="O11" s="1">
-        <v>4322.2882</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104322.2882</v>
+        <v>-10285.2072</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0001</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.9739</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5966.7295</v>
       </c>
       <c r="F12" s="1">
         <v>547.6198000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6514.3493</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100753.0013</v>
       </c>
       <c r="I12" s="1">
-        <v>107190.2856</v>
+        <v>4030.6398</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4545</v>
+        <v>104783.6411</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97190.2856</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.2887</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9295.244000000001</v>
       </c>
-      <c r="O12" s="1">
-        <v>5027.0441</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115027.0441</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0062</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.6787</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6514.3493</v>
       </c>
       <c r="F13" s="1">
         <v>308.8724</v>
       </c>
       <c r="G13" s="1">
-        <v>6823.2217</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114567.8618</v>
       </c>
       <c r="I13" s="1">
-        <v>112650.7475</v>
+        <v>4735.3958</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5099</v>
+        <v>119303.2576</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102650.7475</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.7576</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5460.4618</v>
       </c>
-      <c r="O13" s="1">
-        <v>9566.5823</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129566.5823</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0363</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.7792</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6823.2217</v>
       </c>
       <c r="F14" s="1">
         <v>-6823.2217</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120682.3222</v>
       </c>
       <c r="I14" s="1">
-        <v>112650.7475</v>
+        <v>9274.933999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5099</v>
+        <v>129957.2561</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102650.7475</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0443</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120682.3222</v>
       </c>
-      <c r="O14" s="1">
-        <v>130248.9045</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130248.9045</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0668</v>
+        <v>0.0051</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.2796</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>654.4674</v>
       </c>
       <c r="G2" s="1">
-        <v>654.4674</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2796</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.4022</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>654.4674</v>
       </c>
       <c r="F3" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1303.7253</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19976.0701</v>
+        <v>10027.9458</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3407</v>
+        <v>10027.9458</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2796</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19976.0701</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.042</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1303.7253</v>
       </c>
       <c r="F4" s="1">
         <v>585.5183</v>
       </c>
       <c r="G4" s="1">
-        <v>1889.2436</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20806.0216</v>
       </c>
       <c r="I4" s="1">
-        <v>29392.885</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.558</v>
+        <v>20806.0216</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19392.885</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.875</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9392.885</v>
       </c>
-      <c r="O4" s="1">
-        <v>607.115</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30757.365</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0261</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.8442</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1889.2436</v>
       </c>
       <c r="F5" s="1">
         <v>667.602</v>
       </c>
       <c r="G5" s="1">
-        <v>2556.8457</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29778.2579</v>
       </c>
       <c r="I5" s="1">
-        <v>39970.5052</v>
+        <v>607.115</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6327</v>
+        <v>30385.3729</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29970.5052</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8638</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10577.6202</v>
       </c>
-      <c r="O5" s="1">
-        <v>29.4948</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40330.496</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0105</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.9709</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2556.8457</v>
       </c>
       <c r="F6" s="1">
         <v>621.8116</v>
       </c>
       <c r="G6" s="1">
-        <v>3178.6572</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40623.1638</v>
       </c>
       <c r="I6" s="1">
-        <v>49901.3958</v>
+        <v>29.4948</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6989</v>
+        <v>40652.6586</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39901.3958</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6057</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9930.890600000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>98.60420000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50601.1104</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0054</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.743</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3178.6572</v>
       </c>
       <c r="F7" s="1">
         <v>468.9346</v>
       </c>
       <c r="G7" s="1">
-        <v>3647.5918</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52944.3507</v>
       </c>
       <c r="I7" s="1">
-        <v>57752.7674</v>
+        <v>98.60420000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>15.8331</v>
+        <v>53042.9549</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47752.7674</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.0229</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7851.3716</v>
       </c>
-      <c r="O7" s="1">
-        <v>2247.2326</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63002.2514</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0396</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.6195</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3647.5918</v>
       </c>
       <c r="F8" s="1">
         <v>406.4011</v>
       </c>
       <c r="G8" s="1">
-        <v>4053.993</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63935.3541</v>
       </c>
       <c r="I8" s="1">
-        <v>64913.3523</v>
+        <v>2247.2326</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0122</v>
+        <v>66182.5867</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54913.3523</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.0547</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7160.5849</v>
       </c>
-      <c r="O8" s="1">
-        <v>5086.6477</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76145.44160000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0431</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.6646</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4053.993</v>
       </c>
       <c r="F9" s="1">
         <v>578.9148</v>
       </c>
       <c r="G9" s="1">
-        <v>4632.9077</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71240.81819999999</v>
       </c>
       <c r="I9" s="1">
-        <v>75139.6505</v>
+        <v>5086.6477</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2187</v>
+        <v>76327.4659</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65139.6505</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.068</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10226.2983</v>
       </c>
-      <c r="O9" s="1">
-        <v>4860.3495</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86274.43730000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0015</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.2588</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4632.9077</v>
       </c>
       <c r="F10" s="1">
         <v>715.0771999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5347.985</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>79543.783</v>
       </c>
       <c r="I10" s="1">
-        <v>87481.0252</v>
+        <v>4860.3495</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3578</v>
+        <v>84404.13250000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77481.0252</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7241</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12341.3747</v>
       </c>
-      <c r="O10" s="1">
-        <v>2518.9748</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94340.133</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0201</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.8469</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5347.985</v>
       </c>
       <c r="F11" s="1">
         <v>743.1026000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6091.0875</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102084.1908</v>
+        <v>89630.0888</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>2518.9748</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4174</v>
+        <v>92149.06359999999</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.8288</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.47</v>
       </c>
-      <c r="L11" s="1">
-        <v>2262.1976</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-10256.7771</v>
+        <v>1959.72</v>
       </c>
       <c r="O11" s="1">
-        <v>2262.1976</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104346.3884</v>
+        <v>-10559.2548</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0001</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.9739</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6091.0875</v>
       </c>
       <c r="F12" s="1">
         <v>588.588</v>
       </c>
       <c r="G12" s="1">
-        <v>6679.6755</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102852.886</v>
       </c>
       <c r="I12" s="1">
-        <v>109990.634</v>
+        <v>1959.72</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4665</v>
+        <v>104812.606</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99990.63400000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4159</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9990.634</v>
       </c>
-      <c r="O12" s="1">
-        <v>2271.5636</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115063.229</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0063</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.6787</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6679.6755</v>
       </c>
       <c r="F13" s="1">
         <v>334.3475</v>
       </c>
       <c r="G13" s="1">
-        <v>7014.0231</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>117475.4539</v>
       </c>
       <c r="I13" s="1">
-        <v>115901.4635</v>
+        <v>1969.086</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5242</v>
+        <v>119444.5399</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105901.4635</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8543</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5910.8295</v>
       </c>
-      <c r="O13" s="1">
-        <v>6360.7341</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129716.3579</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0372</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.7792</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7014.0231</v>
       </c>
       <c r="F14" s="1">
         <v>-7014.0231</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124057.026</v>
       </c>
       <c r="I14" s="1">
-        <v>115901.4635</v>
+        <v>6058.2565</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5242</v>
+        <v>130115.2825</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105901.4635</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0985</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124057.026</v>
       </c>
-      <c r="O14" s="1">
-        <v>130417.7602</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130417.7602</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06660000000000001</v>
+        <v>0.0052</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.2796</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>654.4674</v>
       </c>
       <c r="G2" s="1">
-        <v>654.4674</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2796</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.4022</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>654.4674</v>
       </c>
       <c r="F3" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1303.7253</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19976.0701</v>
+        <v>10027.9458</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3407</v>
+        <v>10027.9458</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2796</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19976.0701</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.042</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1303.7253</v>
       </c>
       <c r="F4" s="1">
         <v>594.9645</v>
       </c>
       <c r="G4" s="1">
-        <v>1898.6898</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20806.0216</v>
       </c>
       <c r="I4" s="1">
-        <v>29544.42</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5604</v>
+        <v>20806.0216</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19544.42</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.9912</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9544.42</v>
       </c>
-      <c r="O4" s="1">
-        <v>455.58</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30756.58</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.026</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.8442</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1898.6898</v>
       </c>
       <c r="F5" s="1">
         <v>659.8995</v>
       </c>
       <c r="G5" s="1">
-        <v>2558.5893</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40328.4843</v>
+        <v>29927.148</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>455.58</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6336</v>
+        <v>30382.728</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8004</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10455.58</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40328.4843</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0105</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.9709</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2558.5893</v>
       </c>
       <c r="F6" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3184.7281</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50598.9596</v>
+        <v>40650.8665</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6999</v>
+        <v>40650.8665</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6336</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50598.9596</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0054</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.743</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3184.7281</v>
       </c>
       <c r="F7" s="1">
         <v>508.8005</v>
       </c>
       <c r="G7" s="1">
-        <v>3693.5286</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53045.4677</v>
       </c>
       <c r="I7" s="1">
-        <v>58518.8468</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.8436</v>
+        <v>53045.4677</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48518.8468</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.2348</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8518.846799999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1481.1532</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63001.3038</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0396</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.6195</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3693.5286</v>
       </c>
       <c r="F8" s="1">
         <v>421.8834</v>
       </c>
       <c r="G8" s="1">
-        <v>4115.4119</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>64740.5382</v>
       </c>
       <c r="I8" s="1">
-        <v>65952.2208</v>
+        <v>1481.1532</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0257</v>
+        <v>66221.6914</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55952.2208</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.1487</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7433.3741</v>
       </c>
-      <c r="O8" s="1">
-        <v>4047.7792</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76183.13129999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0436</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.6646</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4115.4119</v>
       </c>
       <c r="F9" s="1">
         <v>599.5887</v>
       </c>
       <c r="G9" s="1">
-        <v>4715.0006</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72320.1341</v>
       </c>
       <c r="I9" s="1">
-        <v>76543.7147</v>
+        <v>4047.7792</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2341</v>
+        <v>76367.9133</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66543.7147</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.1694</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10591.4938</v>
       </c>
-      <c r="O9" s="1">
-        <v>3456.2853</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86312.9909</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0015</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.2588</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4715.0006</v>
       </c>
       <c r="F10" s="1">
         <v>741.5569</v>
       </c>
       <c r="G10" s="1">
-        <v>5456.5575</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>80953.2599</v>
       </c>
       <c r="I10" s="1">
-        <v>89342.0968</v>
+        <v>3456.2853</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3733</v>
+        <v>84409.54519999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79342.0968</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8276</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12798.3821</v>
       </c>
-      <c r="O10" s="1">
-        <v>657.9032</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94343.1758</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0205</v>
+        <v>-0.0227</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.8469</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5456.5575</v>
       </c>
       <c r="F11" s="1">
         <v>632.6328999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6089.1904</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102052.3954</v>
+        <v>91449.7211</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>657.9032</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4225</v>
+        <v>92107.62420000001</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.4939</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.47</v>
       </c>
-      <c r="L11" s="1">
-        <v>2308.1238</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-8349.7793</v>
+        <v>1994.4453</v>
       </c>
       <c r="O11" s="1">
-        <v>2308.1238</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104360.5192</v>
+        <v>-8663.457899999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0002</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.9739</v>
       </c>
       <c r="E12" s="1">
+        <v>6089.1904</v>
+      </c>
+      <c r="F12" s="1">
+        <v>706.6405</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>725.1206</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6814.311</v>
-      </c>
       <c r="H12" s="1">
-        <v>115065.0919</v>
+        <v>102820.8512</v>
       </c>
       <c r="I12" s="1">
-        <v>112308.1238</v>
+        <v>1994.4453</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4812</v>
+        <v>104815.2965</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101994.4453</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7501</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12308.1238</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115065.0919</v>
+        <v>-11994.4453</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0062</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.6787</v>
       </c>
       <c r="E13" s="1">
+        <v>6795.8309</v>
+      </c>
+      <c r="F13" s="1">
+        <v>415.4632</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>396.9832</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7211.2941</v>
-      </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119518.2781</v>
       </c>
       <c r="I13" s="1">
-        <v>119326.2706</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5471</v>
+        <v>119518.2781</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109339.2953</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0892</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-7018.1467</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>2981.8533</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>129806.8834</v>
+        <v>-7344.85</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0379</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.7792</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7211.2941</v>
       </c>
       <c r="F14" s="1">
         <v>-7211.2941</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127546.1595</v>
       </c>
       <c r="I14" s="1">
-        <v>119326.2706</v>
+        <v>2655.15</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5471</v>
+        <v>130201.3095</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109339.2953</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1622</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127546.1595</v>
       </c>
-      <c r="O14" s="1">
-        <v>130528.0128</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130528.0128</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0664</v>
+        <v>0.0053</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.2796</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>654.4674</v>
       </c>
       <c r="G2" s="1">
-        <v>654.4674</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2796</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.4022</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>654.4674</v>
       </c>
       <c r="F3" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1303.7253</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19976.0701</v>
+        <v>10027.9458</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.3407</v>
+        <v>10027.9458</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2796</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19976.0701</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.042</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1303.7253</v>
       </c>
       <c r="F4" s="1">
         <v>604.4419</v>
       </c>
       <c r="G4" s="1">
-        <v>1908.1672</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20806.0216</v>
       </c>
       <c r="I4" s="1">
-        <v>29696.4576</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5628</v>
+        <v>20806.0216</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19696.4576</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.1078</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9696.4576</v>
       </c>
-      <c r="O4" s="1">
-        <v>303.5424</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30755.7924</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.026</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.8442</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1908.1672</v>
       </c>
       <c r="F5" s="1">
         <v>650.3037</v>
       </c>
       <c r="G5" s="1">
-        <v>2558.471</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40326.6194</v>
+        <v>30076.5319</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>303.5424</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6343</v>
+        <v>30380.0743</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7219</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10303.5424</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40326.6194</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0105</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.9709</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2558.471</v>
       </c>
       <c r="F6" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3184.6098</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50597.0798</v>
+        <v>40648.9867</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7005</v>
+        <v>40648.9867</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6343</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50597.0798</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0054</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.743</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3184.6098</v>
       </c>
       <c r="F7" s="1">
         <v>555.4696</v>
       </c>
       <c r="G7" s="1">
-        <v>3740.0793</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53043.497</v>
       </c>
       <c r="I7" s="1">
-        <v>59300.2271</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.8553</v>
+        <v>53043.497</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49300.2271</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.4808</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9300.2271</v>
       </c>
-      <c r="O7" s="1">
-        <v>699.7729</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62995.2822</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0396</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.6195</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3740.0793</v>
       </c>
       <c r="F8" s="1">
         <v>437.7803</v>
       </c>
       <c r="G8" s="1">
-        <v>4177.8597</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>65556.48450000001</v>
       </c>
       <c r="I8" s="1">
-        <v>67013.6976</v>
+        <v>699.7729</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0402</v>
+        <v>66256.2574</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57013.6976</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.244</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7713.4706</v>
       </c>
-      <c r="O8" s="1">
-        <v>2986.3024</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76216.24430000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0441</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.6646</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4177.8597</v>
       </c>
       <c r="F9" s="1">
         <v>620.8878999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4798.7476</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>73417.5278</v>
       </c>
       <c r="I9" s="1">
-        <v>77981.4342</v>
+        <v>2986.3024</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2504</v>
+        <v>76403.8302</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67981.4342</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2718</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10967.7366</v>
       </c>
-      <c r="O9" s="1">
-        <v>2018.5658</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86346.9569</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0015</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.2588</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4798.7476</v>
       </c>
       <c r="F10" s="1">
         <v>696.3732</v>
       </c>
       <c r="G10" s="1">
-        <v>5495.1208</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94347.3771</v>
+        <v>82391.1367</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>2018.5658</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3782</v>
+        <v>84409.7025</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.671</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12018.5658</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94347.3771</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0208</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.8469</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5495.1208</v>
       </c>
       <c r="F11" s="1">
         <v>593.581</v>
       </c>
       <c r="G11" s="1">
-        <v>6088.7018</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>102044.2065</v>
+        <v>92096.0261</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4239</v>
+        <v>92096.0261</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.3782</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.47</v>
       </c>
-      <c r="L11" s="1">
-        <v>2324.4361</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7675.5639</v>
+        <v>2029.8702</v>
       </c>
       <c r="O11" s="1">
-        <v>2324.4361</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104368.6425</v>
+        <v>-7970.1298</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0002</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.9739</v>
       </c>
       <c r="E12" s="1">
+        <v>6088.7018</v>
+      </c>
+      <c r="F12" s="1">
+        <v>708.7275</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>726.0816</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6814.7834</v>
-      </c>
       <c r="H12" s="1">
-        <v>115073.0689</v>
+        <v>102812.6006</v>
       </c>
       <c r="I12" s="1">
-        <v>112324.4361</v>
+        <v>2029.8702</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4825</v>
+        <v>104842.4708</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102029.8702</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7572</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12324.4361</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115073.0689</v>
+        <v>-12029.8702</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0062</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.6787</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6797.4293</v>
       </c>
       <c r="F13" s="1">
         <v>565.6525</v>
       </c>
       <c r="G13" s="1">
-        <v>7380.4358</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>129799.7247</v>
+        <v>119546.3894</v>
       </c>
       <c r="I13" s="1">
-        <v>122324.4361</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5741</v>
+        <v>119546.3894</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112029.8702</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4812</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129799.7247</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0378</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.7792</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7363.0818</v>
       </c>
       <c r="F14" s="1">
-        <v>-7380.4358</v>
+        <v>-7363.0818</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130230.8272</v>
       </c>
       <c r="I14" s="1">
-        <v>122324.4361</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5741</v>
+        <v>130230.8272</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112029.8702</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2151</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130537.7683</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130537.7683</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130537.7683</v>
+        <v>130230.8272</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0663</v>
+        <v>0.0053</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.7313</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.5812</v>
+        <v>15.2217</v>
       </c>
       <c r="D3" s="1">
-        <v>16.5099</v>
+        <v>15.0443</v>
       </c>
       <c r="E3" s="1">
-        <v>16.5242</v>
+        <v>15.0985</v>
       </c>
       <c r="F3" s="1">
-        <v>16.5471</v>
+        <v>15.1622</v>
       </c>
       <c r="G3" s="1">
-        <v>16.5741</v>
+        <v>15.2151</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1564</v>
       </c>
       <c r="C4" s="3">
-        <v>0.06419999999999999</v>
+        <v>0.1603</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0618</v>
+        <v>0.1573</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0634</v>
+        <v>0.1589</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0645</v>
+        <v>0.1598</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0646</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0892</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1014</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1003</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1008</v>
+        <v>0.0881</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1012</v>
+        <v>0.089</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1014</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5248</v>
       </c>
       <c r="C6" s="4">
-        <v>0.4322</v>
+        <v>1.5566</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4132</v>
+        <v>1.5754</v>
       </c>
       <c r="E6" s="4">
-        <v>0.4276</v>
+        <v>1.5741</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4361</v>
+        <v>1.5678</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4371</v>
+        <v>1.5628</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1659</v>
+        <v>-0.0125</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1702</v>
+        <v>0.1651</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1699</v>
+        <v>0.1647</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1693</v>
+        <v>0.1638</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1679</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2324.2622</v>
+        <v>2079.1698</v>
       </c>
       <c r="D8" s="1">
-        <v>2217.3298</v>
+        <v>1925.6814</v>
       </c>
       <c r="E8" s="1">
-        <v>2262.1976</v>
+        <v>1959.72</v>
       </c>
       <c r="F8" s="1">
-        <v>2308.1238</v>
+        <v>1994.4453</v>
       </c>
       <c r="G8" s="1">
-        <v>2324.4361</v>
+        <v>2029.8702</v>
       </c>
     </row>
   </sheetData>
